--- a/biology/Médecine/Angle_de_la_mandibule/Angle_de_la_mandibule.xlsx
+++ b/biology/Médecine/Angle_de_la_mandibule/Angle_de_la_mandibule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' angle de la mandibule (ou angle de la mâchoire ou gonion) est l'angle formé à la jonction  du bord inférieur du corps de la mandibule et le bord postérieur de la branche de la mandibule.
 L'angle de la mandibule, l'endroit où la courbure est maximale,  est le point d'insertion du muscle ptérygoïdien médial sur sa face médiale et du muscle masséter sur sa face latérale. A l'angle formé par ces muscles, se fixe le ligament stylo-mandibulaire. En avant de l'insertion du muscle masséter, se trouve une dépression pour le passage de l'artère faciale.
-Le sommet de cet angle, l'endroit où la courbure est maximale, est un point de repère crâniométrique utilisé en anthropologie : le gonion[1]. Il a été désigné comme un outil médico-légal pour la détermination du sexe, mais certaines études ont remis en question l'existence d'une réelle différence sexuelle chez l'humain au niveau de cet l'angle[2],[3].
+Le sommet de cet angle, l'endroit où la courbure est maximale, est un point de repère crâniométrique utilisé en anthropologie : le gonion. Il a été désigné comme un outil médico-légal pour la détermination du sexe, mais certaines études ont remis en question l'existence d'une réelle différence sexuelle chez l'humain au niveau de cet l'angle,.
 </t>
         </is>
       </c>
